--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_サンプルプロジェクト.XLSX
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_サンプルプロジェクト.XLSX
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D61E3-AEEE-4607-A237-15F7170CE4DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878C4682-4339-400F-A9F9-41F194DCE19D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19710" windowHeight="11760" tabRatio="822" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -37,7 +37,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +49,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>作成者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
@@ -244,6 +246,79 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+    <author>tc={0DAD424B-734E-46B8-A956-5060625A34D8}</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{68ADD98C-4CDD-4260-8F54-82475A13869F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TIS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+原文が訳されていないため
+ご対応をお願いいたします。
+Reply:
+Did not find content to be translated in the original file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TIS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+下記、原文です。
+文字数バリデーション（桁数可変、最大値指定）       
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{0DAD424B-734E-46B8-A956-5060625A34D8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    指摘通りに対応しました。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="256">
   <si>
@@ -916,6 +991,9 @@
   </si>
   <si>
     <t>Sheet name</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
   </si>
   <si>
     <t>Application</t>
@@ -1019,10 +1097,6 @@
   </si>
   <si>
     <t xml:space="preserve">Character count validation (variable number of digits, maximum value specified)   </t>
-  </si>
-  <si>
-    <t>Required</t>
-    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -1030,10 +1104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="48">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1331,6 +1405,21 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2109,7 +2198,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="43" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="43" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2405,13 +2494,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2597,13 +2686,13 @@
     <xf numFmtId="14" fontId="37" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2965,54 +3054,55 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
-    <cellStyle name="20% - アクセント 1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="25" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="26" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="27" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="26" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="39" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="45" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="33" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="34" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="36" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
+    <cellStyle name="Input" xfId="40" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="29" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="27" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="28" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="25" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="37" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="32" builtinId="11" customBuiltin="1"/>
     <cellStyle name="パーセント 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8"/>
-    <cellStyle name="メモ" xfId="28" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="29" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="30" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="31" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="32" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="33" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="34" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="35" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="36" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="37" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="39" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="40" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 10" xfId="48" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="標準 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="標準 2 13" xfId="49" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
@@ -3020,7 +3110,6 @@
     <cellStyle name="標準_~6362950" xfId="42" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="標準_画面標準" xfId="43" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="標準_画面標準定義" xfId="44" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="良い" xfId="45" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8411,7 +8500,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8729,6 +8818,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B14" dT="2020-06-12T07:40:04.35" personId="{00000000-0000-0000-0000-000000000000}" id="{0DAD424B-734E-46B8-A956-5060625A34D8}">
+    <text>指摘通りに対応しました。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
@@ -8738,42 +8835,42 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -8784,7 +8881,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -8793,7 +8890,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -8805,7 +8902,7 @@
       <c r="K25" s="120"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -8814,7 +8911,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -8823,7 +8920,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -8832,7 +8929,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="22"/>
@@ -8840,7 +8937,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -8849,7 +8946,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -8858,7 +8955,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -8867,7 +8964,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="22"/>
@@ -8879,7 +8976,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="22"/>
@@ -8894,515 +8991,515 @@
       <c r="R34" s="124"/>
       <c r="S34" s="124"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="124"/>
       <c r="R35" s="124"/>
       <c r="S35" s="124"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
       <c r="O36" s="125"/>
       <c r="P36" s="124"/>
       <c r="Q36" s="125"/>
       <c r="R36" s="124"/>
       <c r="S36" s="16"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
       <c r="O37" s="121"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="121"/>
       <c r="R37" s="122"/>
       <c r="S37" s="121"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
       <c r="O38" s="122"/>
       <c r="P38" s="122"/>
       <c r="Q38" s="122"/>
       <c r="R38" s="122"/>
       <c r="S38" s="122"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
       <c r="O39" s="122"/>
       <c r="P39" s="122"/>
       <c r="Q39" s="122"/>
       <c r="R39" s="122"/>
       <c r="S39" s="122"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -9430,12 +9527,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" s="11" customFormat="1">
       <c r="A1" s="126" t="s">
         <v>31</v>
       </c>
@@ -9493,7 +9590,7 @@
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" s="11" customFormat="1">
       <c r="A2" s="126" t="s">
         <v>36</v>
       </c>
@@ -9547,7 +9644,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" s="11" customFormat="1">
       <c r="A3" s="126" t="s">
         <v>39</v>
       </c>
@@ -9591,7 +9688,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -9633,7 +9730,7 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
     </row>
-    <row r="5" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -9677,7 +9774,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -9719,7 +9816,7 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="20" t="s">
         <v>41</v>
       </c>
@@ -9775,7 +9872,7 @@
       <c r="AM7" s="29"/>
       <c r="AN7" s="29"/>
     </row>
-    <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="30">
         <v>1</v>
       </c>
@@ -9831,7 +9928,7 @@
       <c r="AM8" s="29"/>
       <c r="AN8" s="29"/>
     </row>
-    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="164"/>
       <c r="C9" s="165"/>
@@ -9873,7 +9970,7 @@
       <c r="AM9" s="29"/>
       <c r="AN9" s="29"/>
     </row>
-    <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="164"/>
       <c r="C10" s="165"/>
@@ -9915,7 +10012,7 @@
       <c r="AM10" s="29"/>
       <c r="AN10" s="29"/>
     </row>
-    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="164"/>
       <c r="C11" s="165"/>
@@ -9957,7 +10054,7 @@
       <c r="AM11" s="29"/>
       <c r="AN11" s="29"/>
     </row>
-    <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="164"/>
       <c r="C12" s="165"/>
@@ -9999,7 +10096,7 @@
       <c r="AM12" s="29"/>
       <c r="AN12" s="29"/>
     </row>
-    <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="164"/>
       <c r="C13" s="165"/>
@@ -10041,7 +10138,7 @@
       <c r="AM13" s="29"/>
       <c r="AN13" s="29"/>
     </row>
-    <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="164"/>
       <c r="C14" s="165"/>
@@ -10083,7 +10180,7 @@
       <c r="AM14" s="29"/>
       <c r="AN14" s="29"/>
     </row>
-    <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="164"/>
       <c r="C15" s="165"/>
@@ -10125,7 +10222,7 @@
       <c r="AM15" s="29"/>
       <c r="AN15" s="29"/>
     </row>
-    <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="164"/>
       <c r="C16" s="165"/>
@@ -10167,7 +10264,7 @@
       <c r="AM16" s="29"/>
       <c r="AN16" s="29"/>
     </row>
-    <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="164"/>
       <c r="C17" s="165"/>
@@ -10209,7 +10306,7 @@
       <c r="AM17" s="29"/>
       <c r="AN17" s="29"/>
     </row>
-    <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="164"/>
       <c r="C18" s="165"/>
@@ -10251,7 +10348,7 @@
       <c r="AM18" s="29"/>
       <c r="AN18" s="29"/>
     </row>
-    <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="30"/>
       <c r="B19" s="164"/>
       <c r="C19" s="165"/>
@@ -10293,7 +10390,7 @@
       <c r="AM19" s="29"/>
       <c r="AN19" s="29"/>
     </row>
-    <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="30"/>
       <c r="B20" s="164"/>
       <c r="C20" s="165"/>
@@ -10335,7 +10432,7 @@
       <c r="AM20" s="29"/>
       <c r="AN20" s="29"/>
     </row>
-    <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="30"/>
       <c r="B21" s="164"/>
       <c r="C21" s="165"/>
@@ -10377,7 +10474,7 @@
       <c r="AM21" s="29"/>
       <c r="AN21" s="29"/>
     </row>
-    <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="30"/>
       <c r="B22" s="164"/>
       <c r="C22" s="165"/>
@@ -10419,7 +10516,7 @@
       <c r="AM22" s="29"/>
       <c r="AN22" s="29"/>
     </row>
-    <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="164"/>
       <c r="C23" s="165"/>
@@ -10461,7 +10558,7 @@
       <c r="AM23" s="29"/>
       <c r="AN23" s="29"/>
     </row>
-    <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="164"/>
       <c r="C24" s="165"/>
@@ -10503,7 +10600,7 @@
       <c r="AM24" s="29"/>
       <c r="AN24" s="29"/>
     </row>
-    <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="30"/>
       <c r="B25" s="164"/>
       <c r="C25" s="165"/>
@@ -10545,7 +10642,7 @@
       <c r="AM25" s="29"/>
       <c r="AN25" s="29"/>
     </row>
-    <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="30"/>
       <c r="B26" s="164"/>
       <c r="C26" s="165"/>
@@ -10587,7 +10684,7 @@
       <c r="AM26" s="29"/>
       <c r="AN26" s="29"/>
     </row>
-    <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="30"/>
       <c r="B27" s="164"/>
       <c r="C27" s="165"/>
@@ -10629,7 +10726,7 @@
       <c r="AM27" s="29"/>
       <c r="AN27" s="29"/>
     </row>
-    <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="30"/>
       <c r="B28" s="164"/>
       <c r="C28" s="165"/>
@@ -10671,7 +10768,7 @@
       <c r="AM28" s="29"/>
       <c r="AN28" s="29"/>
     </row>
-    <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="30"/>
       <c r="B29" s="164"/>
       <c r="C29" s="165"/>
@@ -10713,7 +10810,7 @@
       <c r="AM29" s="29"/>
       <c r="AN29" s="29"/>
     </row>
-    <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="30"/>
       <c r="B30" s="164"/>
       <c r="C30" s="165"/>
@@ -10755,7 +10852,7 @@
       <c r="AM30" s="29"/>
       <c r="AN30" s="29"/>
     </row>
-    <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="30"/>
       <c r="B31" s="164"/>
       <c r="C31" s="165"/>
@@ -10797,7 +10894,7 @@
       <c r="AM31" s="29"/>
       <c r="AN31" s="29"/>
     </row>
-    <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="30"/>
       <c r="B32" s="164"/>
       <c r="C32" s="165"/>
@@ -10839,7 +10936,7 @@
       <c r="AM32" s="29"/>
       <c r="AN32" s="29"/>
     </row>
-    <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="30"/>
       <c r="B33" s="164"/>
       <c r="C33" s="165"/>
@@ -10881,7 +10978,7 @@
       <c r="AM33" s="29"/>
       <c r="AN33" s="29"/>
     </row>
-    <row r="34" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -10923,7 +11020,7 @@
       <c r="AM34" s="29"/>
       <c r="AN34" s="29"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -11159,11 +11256,11 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="39" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="51" customWidth="1"/>
@@ -11298,7 +11395,7 @@
     <col min="16163" max="16384" width="4.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="31" customFormat="1" ht="12" hidden="1">
       <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
@@ -11353,7 +11450,7 @@
       <c r="AH1" s="207"/>
       <c r="AI1" s="208"/>
     </row>
-    <row r="2" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="31" customFormat="1" ht="12" hidden="1">
       <c r="A2" s="188" t="s">
         <v>3</v>
       </c>
@@ -11403,7 +11500,7 @@
       <c r="AH2" s="207"/>
       <c r="AI2" s="208"/>
     </row>
-    <row r="3" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="31" customFormat="1" ht="12" hidden="1">
       <c r="A3" s="188" t="s">
         <v>5</v>
       </c>
@@ -11451,7 +11548,7 @@
       <c r="AH3" s="207"/>
       <c r="AI3" s="208"/>
     </row>
-    <row r="4" spans="1:35" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="34" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -11488,7 +11585,7 @@
       <c r="AH4" s="32"/>
       <c r="AI4" s="32"/>
     </row>
-    <row r="5" spans="1:35" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="34" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -11527,7 +11624,7 @@
       <c r="AH5" s="32"/>
       <c r="AI5" s="32"/>
     </row>
-    <row r="6" spans="1:35" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" s="34" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -11564,7 +11661,7 @@
       <c r="AH6" s="32"/>
       <c r="AI6" s="32"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="36"/>
       <c r="B7" s="37" t="s">
         <v>54</v>
@@ -11597,7 +11694,7 @@
       <c r="AH7" s="43"/>
       <c r="AI7" s="40"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="38"/>
       <c r="C8" s="37"/>
@@ -11628,7 +11725,7 @@
       <c r="AH8" s="45"/>
       <c r="AI8" s="40"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="36"/>
       <c r="B9" s="38" t="s">
         <v>55</v>
@@ -11657,7 +11754,7 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="36"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="40"/>
       <c r="C10" s="48" t="s">
@@ -11690,7 +11787,7 @@
       <c r="AH10" s="43"/>
       <c r="AI10" s="40"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="36"/>
       <c r="B11" s="37"/>
       <c r="C11" s="48" t="s">
@@ -11729,7 +11826,7 @@
       <c r="AH11" s="43"/>
       <c r="AI11" s="40"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="36"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="32"/>
@@ -11752,7 +11849,7 @@
       <c r="AH12" s="43"/>
       <c r="AI12" s="40"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="36"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -11789,7 +11886,7 @@
       <c r="AH13" s="43"/>
       <c r="AI13" s="40"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="36"/>
       <c r="C14" s="50"/>
       <c r="O14" s="38"/>
@@ -11814,7 +11911,7 @@
       <c r="AH14" s="43"/>
       <c r="AI14" s="40"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="36"/>
       <c r="B15" s="38"/>
       <c r="C15" s="50"/>
@@ -11851,7 +11948,7 @@
       <c r="AH15" s="43"/>
       <c r="AI15" s="40"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="38"/>
       <c r="C16" s="50"/>
@@ -11888,7 +11985,7 @@
       <c r="AH16" s="43"/>
       <c r="AI16" s="40"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="36"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -11923,7 +12020,7 @@
       <c r="AH17" s="43"/>
       <c r="AI17" s="40"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="36"/>
       <c r="D18" s="50"/>
       <c r="E18" s="32"/>
@@ -11945,7 +12042,7 @@
       <c r="AH18" s="43"/>
       <c r="AI18" s="40"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="36"/>
       <c r="N19" s="46"/>
       <c r="P19" s="49"/>
@@ -11965,7 +12062,7 @@
       <c r="AH19" s="43"/>
       <c r="AI19" s="40"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="36"/>
       <c r="U20" s="38"/>
       <c r="V20" s="38"/>
@@ -11983,7 +12080,7 @@
       <c r="AH20" s="43"/>
       <c r="AI20" s="40"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="36"/>
       <c r="U21" s="38"/>
       <c r="V21" s="38"/>
@@ -12001,7 +12098,7 @@
       <c r="AH21" s="43"/>
       <c r="AI21" s="40"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="36"/>
       <c r="U22" s="38"/>
       <c r="V22" s="38"/>
@@ -12019,7 +12116,7 @@
       <c r="AH22" s="43"/>
       <c r="AI22" s="40"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="36"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38"/>
@@ -12037,7 +12134,7 @@
       <c r="AH23" s="43"/>
       <c r="AI23" s="40"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="32"/>
       <c r="C24" s="36"/>
@@ -12072,7 +12169,7 @@
       <c r="AH24" s="43"/>
       <c r="AI24" s="40"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="36"/>
       <c r="B25" s="32"/>
       <c r="C25" s="36"/>
@@ -12109,7 +12206,7 @@
       <c r="AH25" s="43"/>
       <c r="AI25" s="40"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="36"/>
       <c r="B26" s="32"/>
       <c r="C26" s="36"/>
@@ -12146,7 +12243,7 @@
       <c r="AH26" s="43"/>
       <c r="AI26" s="40"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="36"/>
       <c r="B27" s="32"/>
       <c r="C27" s="36"/>
@@ -12183,7 +12280,7 @@
       <c r="AH27" s="43"/>
       <c r="AI27" s="40"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="36"/>
       <c r="B28" s="32"/>
       <c r="C28" s="36"/>
@@ -12220,7 +12317,7 @@
       <c r="AH28" s="43"/>
       <c r="AI28" s="40"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="36"/>
       <c r="B29" s="32"/>
       <c r="C29" s="36"/>
@@ -12257,7 +12354,7 @@
       <c r="AH29" s="43"/>
       <c r="AI29" s="40"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="52"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -12294,7 +12391,7 @@
       <c r="AH30" s="55"/>
       <c r="AI30" s="56"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="52"/>
       <c r="B31" s="32"/>
       <c r="C31" s="33"/>
@@ -12331,7 +12428,7 @@
       <c r="AH31" s="55"/>
       <c r="AI31" s="56"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="52"/>
       <c r="B32" s="59"/>
       <c r="C32" s="36"/>
@@ -12368,7 +12465,7 @@
       <c r="AH32" s="55"/>
       <c r="AI32" s="56"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="52"/>
       <c r="B33" s="59"/>
       <c r="C33" s="36"/>
@@ -12405,7 +12502,7 @@
       <c r="AH33" s="55"/>
       <c r="AI33" s="56"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="52"/>
       <c r="B34" s="59"/>
       <c r="C34" s="36"/>
@@ -12442,7 +12539,7 @@
       <c r="AH34" s="55"/>
       <c r="AI34" s="56"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="52"/>
       <c r="B35" s="59"/>
       <c r="C35" s="36"/>
@@ -12479,7 +12576,7 @@
       <c r="AH35" s="55"/>
       <c r="AI35" s="56"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="A36" s="52"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
@@ -12516,7 +12613,7 @@
       <c r="AH36" s="64"/>
       <c r="AI36" s="52"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="B37" s="65"/>
       <c r="E37" s="65"/>
       <c r="F37" s="65"/>
@@ -12548,7 +12645,7 @@
       <c r="AH37" s="71"/>
       <c r="AI37" s="67"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="S38" s="67"/>
       <c r="T38" s="67"/>
       <c r="U38" s="68"/>
@@ -12567,7 +12664,7 @@
       <c r="AH38" s="74"/>
       <c r="AI38" s="67"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="Q39" s="75"/>
       <c r="S39" s="67"/>
       <c r="T39" s="68"/>
@@ -12587,7 +12684,7 @@
       <c r="AH39" s="74"/>
       <c r="AI39" s="67"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="S40" s="67"/>
       <c r="T40" s="67"/>
       <c r="U40" s="67"/>
@@ -12606,7 +12703,7 @@
       <c r="AH40" s="74"/>
       <c r="AI40" s="67"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="65"/>
@@ -12620,37 +12717,37 @@
       <c r="AH41" s="74"/>
       <c r="AI41" s="67"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="67"/>
       <c r="AF42" s="72"/>
       <c r="AG42" s="73"/>
       <c r="AH42" s="74"/>
       <c r="AI42" s="67"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="AE43" s="67"/>
       <c r="AF43" s="72"/>
       <c r="AG43" s="72"/>
       <c r="AH43" s="74"/>
       <c r="AI43" s="67"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="65"/>
       <c r="AF44" s="76"/>
       <c r="AG44" s="76"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="A45" s="65"/>
       <c r="AG45" s="76"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AF46" s="76"/>
       <c r="AG46" s="76"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="AG47" s="76"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="S48" s="65"/>
       <c r="T48" s="65"/>
       <c r="V48" s="65"/>
@@ -12663,7 +12760,7 @@
       <c r="AC48" s="65"/>
       <c r="AD48" s="65"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="65"/>
       <c r="S49" s="65"/>
       <c r="T49" s="65"/>
@@ -12678,10 +12775,10 @@
       <c r="AD49" s="65"/>
       <c r="AG49" s="76"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1">
       <c r="R50" s="65"/>
     </row>
-    <row r="51" spans="1:34" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="65" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -12714,7 +12811,7 @@
       <c r="AD51" s="39"/>
       <c r="AH51" s="75"/>
     </row>
-    <row r="52" spans="1:34" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="65" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -12785,14 +12882,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="32" width="4.83203125" style="50"/>
     <col min="33" max="35" width="4.83203125" style="50" customWidth="1"/>
     <col min="36" max="16384" width="4.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A1" s="188" t="s">
         <v>6</v>
       </c>
@@ -12847,7 +12944,7 @@
       <c r="AH1" s="207"/>
       <c r="AI1" s="208"/>
     </row>
-    <row r="2" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A2" s="220" t="s">
         <v>9</v>
       </c>
@@ -12897,7 +12994,7 @@
       <c r="AH2" s="207"/>
       <c r="AI2" s="208"/>
     </row>
-    <row r="3" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="31" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A3" s="220" t="s">
         <v>11</v>
       </c>
@@ -12945,32 +13042,32 @@
       <c r="AH3" s="207"/>
       <c r="AI3" s="208"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="B6" s="50" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="C8" s="50" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="B11" s="50" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="C13" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35">
       <c r="C15" s="50" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:33">
       <c r="D17" s="232" t="s">
         <v>171</v>
       </c>
@@ -13006,7 +13103,7 @@
       <c r="AF17" s="232"/>
       <c r="AG17" s="232"/>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33">
       <c r="D18" s="233" t="s">
         <v>173</v>
       </c>
@@ -13042,7 +13139,7 @@
       <c r="AF18" s="233"/>
       <c r="AG18" s="233"/>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33">
       <c r="D19" s="218" t="s">
         <v>175</v>
       </c>
@@ -13078,7 +13175,7 @@
       <c r="AF19" s="218"/>
       <c r="AG19" s="218"/>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:33">
       <c r="D20" s="234"/>
       <c r="E20" s="234"/>
       <c r="F20" s="234"/>
@@ -13112,12 +13209,12 @@
       <c r="AF20" s="234"/>
       <c r="AG20" s="234"/>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33">
       <c r="C22" s="50" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33">
       <c r="D24" s="232" t="s">
         <v>171</v>
       </c>
@@ -13153,7 +13250,7 @@
       <c r="AF24" s="232"/>
       <c r="AG24" s="232"/>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33">
       <c r="D25" s="233" t="s">
         <v>179</v>
       </c>
@@ -13189,7 +13286,7 @@
       <c r="AF25" s="233"/>
       <c r="AG25" s="233"/>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:33">
       <c r="D26" s="233" t="s">
         <v>181</v>
       </c>
@@ -13225,7 +13322,7 @@
       <c r="AF26" s="233"/>
       <c r="AG26" s="233"/>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33">
       <c r="D27" s="233" t="s">
         <v>183</v>
       </c>
@@ -13261,12 +13358,12 @@
       <c r="AF27" s="233"/>
       <c r="AG27" s="233"/>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:33">
       <c r="C29" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:33">
       <c r="D31" s="232" t="s">
         <v>171</v>
       </c>
@@ -13302,7 +13399,7 @@
       <c r="AF31" s="232"/>
       <c r="AG31" s="232"/>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:33">
       <c r="D32" s="236" t="s">
         <v>186</v>
       </c>
@@ -13338,7 +13435,7 @@
       <c r="AF32" s="236"/>
       <c r="AG32" s="236"/>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33">
       <c r="D33" s="237"/>
       <c r="E33" s="237"/>
       <c r="F33" s="237"/>
@@ -13372,7 +13469,7 @@
       <c r="AF33" s="237"/>
       <c r="AG33" s="237"/>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33">
       <c r="D34" s="236" t="s">
         <v>189</v>
       </c>
@@ -13408,7 +13505,7 @@
       <c r="AF34" s="236"/>
       <c r="AG34" s="236"/>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:33">
       <c r="D35" s="237"/>
       <c r="E35" s="237"/>
       <c r="F35" s="237"/>
@@ -13442,7 +13539,7 @@
       <c r="AF35" s="237"/>
       <c r="AG35" s="237"/>
     </row>
-    <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:33" ht="13.5" customHeight="1">
       <c r="D36" s="245" t="s">
         <v>192</v>
       </c>
@@ -13478,7 +13575,7 @@
       <c r="AF36" s="245"/>
       <c r="AG36" s="245"/>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33">
       <c r="D37" s="89"/>
       <c r="E37" s="89"/>
       <c r="F37" s="89"/>
@@ -13510,12 +13607,12 @@
       <c r="AF37" s="89"/>
       <c r="AG37" s="89"/>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33">
       <c r="C38" s="50" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:33">
       <c r="D40" s="232" t="s">
         <v>171</v>
       </c>
@@ -13551,7 +13648,7 @@
       <c r="AF40" s="232"/>
       <c r="AG40" s="232"/>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:33">
       <c r="D41" s="233" t="s">
         <v>195</v>
       </c>
@@ -13587,7 +13684,7 @@
       <c r="AF41" s="233"/>
       <c r="AG41" s="233"/>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33">
       <c r="D42" s="65"/>
       <c r="E42" s="65"/>
       <c r="F42" s="65"/>
@@ -13619,32 +13716,32 @@
       <c r="AF42" s="65"/>
       <c r="AG42" s="65"/>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:33">
       <c r="B44" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:33">
       <c r="C46" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33">
       <c r="C47" s="50" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:33">
       <c r="C49" s="50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:33">
       <c r="D51" s="50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:33">
       <c r="E53" s="238" t="s">
         <v>202</v>
       </c>
@@ -13677,7 +13774,7 @@
       <c r="AF53" s="238"/>
       <c r="AG53" s="238"/>
     </row>
-    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:33">
       <c r="E54" s="238"/>
       <c r="F54" s="238"/>
       <c r="G54" s="238"/>
@@ -13708,92 +13805,92 @@
       <c r="AF54" s="238"/>
       <c r="AG54" s="238"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:5">
       <c r="D85" s="50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:5">
       <c r="E87" s="50" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:5">
       <c r="E88" s="50" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:5">
       <c r="E89" s="50" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:5">
       <c r="E90" s="50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:5">
       <c r="E91" s="50" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:5">
       <c r="E92" s="50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:5">
       <c r="C95" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:5">
       <c r="D97" s="50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:5">
       <c r="E99" s="50" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:5">
       <c r="E100" s="50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:31">
       <c r="D132" s="50" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:31">
       <c r="E134" s="50" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="135" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:31">
       <c r="E135" s="50" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:31">
       <c r="E136" s="50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:31">
       <c r="E137" s="50" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="138" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:31">
       <c r="E138" s="50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="141" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:31">
       <c r="B141" s="89" t="s">
         <v>218</v>
       </c>
@@ -13827,7 +13924,7 @@
       <c r="AD141" s="89"/>
       <c r="AE141" s="89"/>
     </row>
-    <row r="142" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:31">
       <c r="B142" s="89"/>
       <c r="C142" s="89" t="s">
         <v>219</v>
@@ -13861,7 +13958,7 @@
       <c r="AD142" s="89"/>
       <c r="AE142" s="89"/>
     </row>
-    <row r="143" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:31">
       <c r="B143" s="89"/>
       <c r="C143" s="89" t="s">
         <v>220</v>
@@ -13895,7 +13992,7 @@
       <c r="AD143" s="89"/>
       <c r="AE143" s="89"/>
     </row>
-    <row r="144" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:31">
       <c r="B144" s="89"/>
       <c r="C144" s="89"/>
       <c r="D144" s="89"/>
@@ -13927,7 +14024,7 @@
       <c r="AD144" s="89"/>
       <c r="AE144" s="89"/>
     </row>
-    <row r="145" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:31">
       <c r="B145" s="89"/>
       <c r="C145" s="90" t="s">
         <v>221</v>
@@ -13941,10 +14038,10 @@
       <c r="J145" s="91"/>
       <c r="K145" s="92"/>
       <c r="L145" s="93" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="M145" s="90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N145" s="91"/>
       <c r="O145" s="91"/>
@@ -13965,7 +14062,7 @@
       <c r="AD145" s="91"/>
       <c r="AE145" s="92"/>
     </row>
-    <row r="146" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:31">
       <c r="B146" s="89"/>
       <c r="C146" s="94" t="s">
         <v>54</v>
@@ -14003,11 +14100,11 @@
       <c r="AD146" s="95"/>
       <c r="AE146" s="98"/>
     </row>
-    <row r="147" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:31">
       <c r="B147" s="89"/>
       <c r="C147" s="99"/>
       <c r="D147" s="100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E147" s="101"/>
       <c r="F147" s="101"/>
@@ -14017,10 +14114,10 @@
       <c r="J147" s="101"/>
       <c r="K147" s="102"/>
       <c r="L147" s="103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M147" s="100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N147" s="101"/>
       <c r="O147" s="101"/>
@@ -14041,11 +14138,11 @@
       <c r="AD147" s="101"/>
       <c r="AE147" s="102"/>
     </row>
-    <row r="148" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:31">
       <c r="B148" s="89"/>
       <c r="C148" s="104"/>
       <c r="D148" s="105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E148" s="106"/>
       <c r="F148" s="106"/>
@@ -14055,10 +14152,10 @@
       <c r="J148" s="106"/>
       <c r="K148" s="107"/>
       <c r="L148" s="108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M148" s="105" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N148" s="106"/>
       <c r="O148" s="106"/>
@@ -14079,7 +14176,7 @@
       <c r="AD148" s="106"/>
       <c r="AE148" s="107"/>
     </row>
-    <row r="149" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:31">
       <c r="B149" s="89"/>
       <c r="C149" s="94" t="s">
         <v>56</v>
@@ -14093,10 +14190,10 @@
       <c r="J149" s="95"/>
       <c r="K149" s="98"/>
       <c r="L149" s="109" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M149" s="94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N149" s="95"/>
       <c r="O149" s="95"/>
@@ -14117,7 +14214,7 @@
       <c r="AD149" s="95"/>
       <c r="AE149" s="98"/>
     </row>
-    <row r="150" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:31">
       <c r="B150" s="89"/>
       <c r="C150" s="99"/>
       <c r="D150" s="110"/>
@@ -14130,7 +14227,7 @@
       <c r="K150" s="111"/>
       <c r="L150" s="112"/>
       <c r="M150" s="99" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N150" s="110"/>
       <c r="O150" s="110"/>
@@ -14151,7 +14248,7 @@
       <c r="AD150" s="110"/>
       <c r="AE150" s="111"/>
     </row>
-    <row r="151" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:31">
       <c r="B151" s="89"/>
       <c r="C151" s="94" t="s">
         <v>57</v>
@@ -14165,10 +14262,10 @@
       <c r="J151" s="95"/>
       <c r="K151" s="98"/>
       <c r="L151" s="113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M151" s="239" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N151" s="240"/>
       <c r="O151" s="240"/>
@@ -14189,7 +14286,7 @@
       <c r="AD151" s="240"/>
       <c r="AE151" s="241"/>
     </row>
-    <row r="152" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:31">
       <c r="B152" s="89"/>
       <c r="C152" s="104"/>
       <c r="D152" s="114"/>
@@ -14221,7 +14318,7 @@
       <c r="AD152" s="243"/>
       <c r="AE152" s="244"/>
     </row>
-    <row r="153" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:31">
       <c r="B153" s="89"/>
       <c r="C153" s="89"/>
       <c r="D153" s="89"/>
@@ -14253,10 +14350,10 @@
       <c r="AD153" s="89"/>
       <c r="AE153" s="89"/>
     </row>
-    <row r="154" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:31">
       <c r="B154" s="89"/>
       <c r="C154" s="89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D154" s="89"/>
       <c r="E154" s="89"/>
@@ -14287,7 +14384,7 @@
       <c r="AD154" s="89"/>
       <c r="AE154" s="89"/>
     </row>
-    <row r="155" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:31">
       <c r="B155" s="89"/>
       <c r="C155" s="89"/>
       <c r="D155" s="89"/>
@@ -14319,10 +14416,10 @@
       <c r="AD155" s="89"/>
       <c r="AE155" s="89"/>
     </row>
-    <row r="156" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:31">
       <c r="B156" s="89"/>
       <c r="C156" s="89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D156" s="89"/>
       <c r="F156" s="89"/>
@@ -14352,10 +14449,10 @@
       <c r="AD156" s="89"/>
       <c r="AE156" s="89"/>
     </row>
-    <row r="157" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:31">
       <c r="B157" s="89"/>
       <c r="C157" s="89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D157" s="89"/>
       <c r="F157" s="89"/>
@@ -14385,10 +14482,10 @@
       <c r="AD157" s="89"/>
       <c r="AE157" s="89"/>
     </row>
-    <row r="158" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:31">
       <c r="B158" s="89"/>
       <c r="C158" s="89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D158" s="89"/>
       <c r="F158" s="89"/>
@@ -14418,10 +14515,10 @@
       <c r="AD158" s="89"/>
       <c r="AE158" s="89"/>
     </row>
-    <row r="159" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:31">
       <c r="B159" s="89"/>
       <c r="C159" s="89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D159" s="89"/>
       <c r="F159" s="89"/>
@@ -14451,10 +14548,10 @@
       <c r="AD159" s="89"/>
       <c r="AE159" s="89"/>
     </row>
-    <row r="160" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:31">
       <c r="B160" s="89"/>
       <c r="C160" s="89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D160" s="89"/>
       <c r="F160" s="89"/>
@@ -14484,10 +14581,10 @@
       <c r="AD160" s="89"/>
       <c r="AE160" s="89"/>
     </row>
-    <row r="161" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:31">
       <c r="B161" s="89"/>
       <c r="C161" s="89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D161" s="89"/>
       <c r="F161" s="89"/>
@@ -14517,9 +14614,9 @@
       <c r="AD161" s="89"/>
       <c r="AE161" s="89"/>
     </row>
-    <row r="162" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:31">
       <c r="C162" s="89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -14597,11 +14694,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BN31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="23" width="4.83203125" style="50"/>
     <col min="24" max="24" width="4.83203125" style="50" customWidth="1"/>
@@ -14612,7 +14709,7 @@
     <col min="45" max="16384" width="4.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" s="31" customFormat="1" hidden="1">
       <c r="A1" s="188" t="s">
         <v>12</v>
       </c>
@@ -14670,7 +14767,7 @@
       <c r="AK1" s="79"/>
       <c r="AL1" s="80"/>
     </row>
-    <row r="2" spans="1:66" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" s="31" customFormat="1" hidden="1">
       <c r="A2" s="220" t="s">
         <v>15</v>
       </c>
@@ -14723,7 +14820,7 @@
       <c r="AK2" s="79"/>
       <c r="AL2" s="79"/>
     </row>
-    <row r="3" spans="1:66" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" s="31" customFormat="1" hidden="1">
       <c r="A3" s="220" t="s">
         <v>17</v>
       </c>
@@ -14774,12 +14871,12 @@
       <c r="AK3" s="79"/>
       <c r="AL3" s="79"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66">
       <c r="A5" s="50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66">
       <c r="A7" s="296" t="s">
         <v>41</v>
       </c>
@@ -14868,7 +14965,7 @@
       <c r="BM7" s="278"/>
       <c r="BN7" s="278"/>
     </row>
-    <row r="8" spans="1:66" s="82" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:66" s="82" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="297"/>
       <c r="B8" s="298"/>
       <c r="C8" s="298"/>
@@ -14945,7 +15042,7 @@
       <c r="BM8" s="278"/>
       <c r="BN8" s="278"/>
     </row>
-    <row r="9" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="83">
         <v>1</v>
       </c>
@@ -14993,7 +15090,7 @@
       <c r="AI9" s="252"/>
       <c r="AJ9" s="84"/>
       <c r="AL9" s="263" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM9" s="275"/>
       <c r="AN9" s="275"/>
@@ -15028,7 +15125,7 @@
       <c r="BM9" s="266"/>
       <c r="BN9" s="266"/>
     </row>
-    <row r="10" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="83">
         <v>2</v>
       </c>
@@ -15111,7 +15208,7 @@
       <c r="BM10" s="266"/>
       <c r="BN10" s="266"/>
     </row>
-    <row r="11" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="83">
         <v>3</v>
       </c>
@@ -15199,7 +15296,7 @@
       <c r="BM11" s="266"/>
       <c r="BN11" s="266"/>
     </row>
-    <row r="12" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="83">
         <v>4</v>
       </c>
@@ -15282,7 +15379,7 @@
       <c r="BM12" s="266"/>
       <c r="BN12" s="266"/>
     </row>
-    <row r="13" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="83">
         <v>5</v>
       </c>
@@ -15369,7 +15466,7 @@
       <c r="BM13" s="266"/>
       <c r="BN13" s="266"/>
     </row>
-    <row r="14" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="83">
         <v>6</v>
       </c>
@@ -15453,7 +15550,7 @@
       <c r="BM14" s="266"/>
       <c r="BN14" s="266"/>
     </row>
-    <row r="15" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" s="85" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="83">
         <v>7</v>
       </c>
@@ -15537,7 +15634,7 @@
       <c r="BM15" s="266"/>
       <c r="BN15" s="266"/>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66">
       <c r="A16" s="83">
         <v>8</v>
       </c>
@@ -15623,7 +15720,7 @@
       <c r="BM16" s="266"/>
       <c r="BN16" s="266"/>
     </row>
-    <row r="17" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" ht="11.25" customHeight="1">
       <c r="A17" s="83">
         <v>9</v>
       </c>
@@ -15709,7 +15806,7 @@
       <c r="BM17" s="266"/>
       <c r="BN17" s="266"/>
     </row>
-    <row r="18" spans="1:66" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" ht="26.25" customHeight="1">
       <c r="A18" s="83">
         <v>10</v>
       </c>
@@ -15791,7 +15888,7 @@
       <c r="BM18" s="266"/>
       <c r="BN18" s="266"/>
     </row>
-    <row r="19" spans="1:66" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" ht="23.25" customHeight="1">
       <c r="A19" s="83">
         <v>11</v>
       </c>
@@ -15873,7 +15970,7 @@
       <c r="BM19" s="266"/>
       <c r="BN19" s="266"/>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66">
       <c r="A20" s="83">
         <v>12</v>
       </c>
@@ -15953,7 +16050,7 @@
       <c r="BM20" s="266"/>
       <c r="BN20" s="266"/>
     </row>
-    <row r="21" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" ht="11.25" customHeight="1">
       <c r="A21" s="83">
         <v>13</v>
       </c>
@@ -16033,7 +16130,7 @@
       <c r="BM21" s="266"/>
       <c r="BN21" s="266"/>
     </row>
-    <row r="22" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" ht="11.25" customHeight="1">
       <c r="A22" s="83">
         <v>14</v>
       </c>
@@ -16113,7 +16210,7 @@
       <c r="BM22" s="266"/>
       <c r="BN22" s="266"/>
     </row>
-    <row r="23" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" ht="11.25" customHeight="1">
       <c r="A23" s="83">
         <v>15</v>
       </c>
@@ -16193,7 +16290,7 @@
       <c r="BM23" s="266"/>
       <c r="BN23" s="266"/>
     </row>
-    <row r="24" spans="1:66" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66" ht="22.5" customHeight="1">
       <c r="A24" s="83">
         <v>16</v>
       </c>
@@ -16277,7 +16374,7 @@
       <c r="BM24" s="266"/>
       <c r="BN24" s="266"/>
     </row>
-    <row r="25" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66" ht="11.25" customHeight="1">
       <c r="A25" s="83">
         <v>17</v>
       </c>
@@ -16359,7 +16456,7 @@
       <c r="BM25" s="266"/>
       <c r="BN25" s="266"/>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66">
       <c r="A26" s="83">
         <v>18</v>
       </c>
@@ -16443,7 +16540,7 @@
       <c r="BM26" s="266"/>
       <c r="BN26" s="266"/>
     </row>
-    <row r="27" spans="1:66" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66" ht="23.25" customHeight="1">
       <c r="A27" s="83">
         <v>19</v>
       </c>
@@ -16527,7 +16624,7 @@
       <c r="BM27" s="266"/>
       <c r="BN27" s="266"/>
     </row>
-    <row r="28" spans="1:66" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66" ht="23.25" customHeight="1">
       <c r="A28" s="83">
         <v>20</v>
       </c>
@@ -16611,7 +16708,7 @@
       <c r="BM28" s="266"/>
       <c r="BN28" s="266"/>
     </row>
-    <row r="29" spans="1:66" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:66" ht="23.25" customHeight="1">
       <c r="A29" s="83">
         <v>21</v>
       </c>
@@ -16695,8 +16792,8 @@
       <c r="BM29" s="266"/>
       <c r="BN29" s="266"/>
     </row>
-    <row r="30" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:66" ht="11.25" customHeight="1"/>
+    <row r="31" spans="1:66" ht="11.25" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="306">
@@ -17033,7 +17130,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="29" width="4.83203125" style="48" customWidth="1"/>
     <col min="30" max="30" width="5" style="48" customWidth="1"/>
@@ -17041,7 +17138,7 @@
     <col min="71" max="16384" width="9.33203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="77" customFormat="1" hidden="1">
       <c r="A1" s="188" t="s">
         <v>18</v>
       </c>
@@ -17096,7 +17193,7 @@
       <c r="AH1" s="207"/>
       <c r="AI1" s="208"/>
     </row>
-    <row r="2" spans="1:70" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" s="77" customFormat="1" hidden="1">
       <c r="A2" s="220" t="s">
         <v>21</v>
       </c>
@@ -17146,7 +17243,7 @@
       <c r="AH2" s="207"/>
       <c r="AI2" s="208"/>
     </row>
-    <row r="3" spans="1:70" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" s="77" customFormat="1" hidden="1">
       <c r="A3" s="220" t="s">
         <v>23</v>
       </c>
@@ -17194,17 +17291,17 @@
       <c r="AH3" s="207"/>
       <c r="AI3" s="208"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70">
       <c r="A5" s="48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70">
       <c r="B6" s="48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70">
       <c r="A8" s="232" t="s">
         <v>41</v>
       </c>
@@ -17255,7 +17352,7 @@
       <c r="BQ8" s="50"/>
       <c r="BR8" s="50"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70">
       <c r="A9" s="232"/>
       <c r="B9" s="312"/>
       <c r="C9" s="313"/>
@@ -17331,7 +17428,7 @@
       <c r="BQ9" s="50"/>
       <c r="BR9" s="50"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70">
       <c r="A10" s="78">
         <v>1</v>
       </c>
@@ -17409,7 +17506,7 @@
       <c r="BQ10" s="50"/>
       <c r="BR10" s="50"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70">
       <c r="A11" s="78">
         <v>2</v>
       </c>
@@ -17487,7 +17584,7 @@
       <c r="BQ11" s="50"/>
       <c r="BR11" s="50"/>
     </row>
-    <row r="12" spans="1:70" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" ht="25.5" customHeight="1">
       <c r="A12" s="78">
         <v>3</v>
       </c>
@@ -17565,12 +17662,12 @@
       <c r="BQ12" s="50"/>
       <c r="BR12" s="50"/>
     </row>
-    <row r="13" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" ht="21.75" customHeight="1">
       <c r="A13" s="78">
         <v>4</v>
       </c>
       <c r="B13" s="270" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C13" s="273"/>
       <c r="D13" s="273"/>
@@ -17643,7 +17740,7 @@
       <c r="BQ13" s="50"/>
       <c r="BR13" s="50"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70">
       <c r="A14" s="78">
         <v>5</v>
       </c>
@@ -17721,7 +17818,7 @@
       <c r="BQ14" s="50"/>
       <c r="BR14" s="50"/>
     </row>
-    <row r="15" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" ht="21.75" customHeight="1">
       <c r="A15" s="78">
         <v>6</v>
       </c>
@@ -17799,7 +17896,7 @@
       <c r="BQ15" s="50"/>
       <c r="BR15" s="50"/>
     </row>
-    <row r="16" spans="1:70" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" ht="39.75" customHeight="1">
       <c r="A16" s="78">
         <v>7</v>
       </c>
@@ -17877,7 +17974,7 @@
       <c r="BQ16" s="50"/>
       <c r="BR16" s="50"/>
     </row>
-    <row r="17" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" ht="24" customHeight="1">
       <c r="A17" s="78">
         <v>8</v>
       </c>
@@ -17955,7 +18052,7 @@
       <c r="BQ17" s="50"/>
       <c r="BR17" s="50"/>
     </row>
-    <row r="18" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" ht="24" customHeight="1">
       <c r="A18" s="78">
         <v>9</v>
       </c>
@@ -18033,7 +18130,7 @@
       <c r="BQ18" s="50"/>
       <c r="BR18" s="50"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70">
       <c r="A19" s="50"/>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
@@ -18105,7 +18202,7 @@
       <c r="BQ19" s="50"/>
       <c r="BR19" s="50"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70">
       <c r="A20" s="50"/>
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
@@ -18177,7 +18274,7 @@
       <c r="BQ20" s="50"/>
       <c r="BR20" s="50"/>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70">
       <c r="A21" s="50"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -18249,7 +18346,7 @@
       <c r="BQ21" s="50"/>
       <c r="BR21" s="50"/>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70">
       <c r="A22" s="50"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -18321,7 +18418,7 @@
       <c r="BQ22" s="50"/>
       <c r="BR22" s="50"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:70">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
@@ -18393,7 +18490,7 @@
       <c r="BQ23" s="50"/>
       <c r="BR23" s="50"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:70">
       <c r="AG24" s="50"/>
       <c r="AH24" s="50"/>
       <c r="AI24" s="50"/>
@@ -18433,7 +18530,7 @@
       <c r="BQ24" s="50"/>
       <c r="BR24" s="50"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70">
       <c r="AG25" s="50"/>
       <c r="AH25" s="50"/>
       <c r="AI25" s="50"/>
@@ -18473,7 +18570,7 @@
       <c r="BQ25" s="50"/>
       <c r="BR25" s="50"/>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:70">
       <c r="AG26" s="50"/>
       <c r="AH26" s="50"/>
       <c r="AI26" s="50"/>
@@ -18513,7 +18610,7 @@
       <c r="BQ26" s="50"/>
       <c r="BR26" s="50"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:70">
       <c r="AG27" s="50"/>
       <c r="AH27" s="50"/>
       <c r="AI27" s="50"/>
@@ -18553,7 +18650,7 @@
       <c r="BQ27" s="50"/>
       <c r="BR27" s="50"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:70">
       <c r="AG28" s="50"/>
       <c r="AH28" s="50"/>
       <c r="AI28" s="50"/>
@@ -18666,15 +18763,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BR25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="29" width="4.83203125" style="48" customWidth="1"/>
     <col min="30" max="30" width="5" style="48" customWidth="1"/>
@@ -18682,7 +18779,7 @@
     <col min="71" max="16384" width="9.33203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="77" customFormat="1" hidden="1">
       <c r="A1" s="188" t="s">
         <v>24</v>
       </c>
@@ -18737,7 +18834,7 @@
       <c r="AH1" s="207"/>
       <c r="AI1" s="208"/>
     </row>
-    <row r="2" spans="1:70" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" s="77" customFormat="1" hidden="1">
       <c r="A2" s="220" t="s">
         <v>27</v>
       </c>
@@ -18787,7 +18884,7 @@
       <c r="AH2" s="207"/>
       <c r="AI2" s="208"/>
     </row>
-    <row r="3" spans="1:70" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" s="77" customFormat="1" hidden="1">
       <c r="A3" s="220" t="s">
         <v>29</v>
       </c>
@@ -18835,17 +18932,17 @@
       <c r="AH3" s="207"/>
       <c r="AI3" s="208"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70">
       <c r="A5" s="48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70">
       <c r="B6" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70">
       <c r="A8" s="232" t="s">
         <v>41</v>
       </c>
@@ -18925,7 +19022,7 @@
       <c r="BQ8" s="50"/>
       <c r="BR8" s="50"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70">
       <c r="A9" s="232"/>
       <c r="B9" s="312"/>
       <c r="C9" s="313"/>
@@ -19001,7 +19098,7 @@
       <c r="BQ9" s="50"/>
       <c r="BR9" s="50"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70">
       <c r="A10" s="78"/>
       <c r="B10" s="305"/>
       <c r="C10" s="305"/>
@@ -19073,7 +19170,7 @@
       <c r="BQ10" s="50"/>
       <c r="BR10" s="50"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70">
       <c r="A11" s="78"/>
       <c r="B11" s="305"/>
       <c r="C11" s="305"/>
@@ -19145,7 +19242,7 @@
       <c r="BQ11" s="50"/>
       <c r="BR11" s="50"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70">
       <c r="A12" s="78"/>
       <c r="B12" s="305"/>
       <c r="C12" s="305"/>
@@ -19217,10 +19314,10 @@
       <c r="BQ12" s="50"/>
       <c r="BR12" s="50"/>
     </row>
-    <row r="13" spans="1:70" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" ht="21.75" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="316" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C13" s="316"/>
       <c r="D13" s="316"/>
@@ -19291,7 +19388,7 @@
       <c r="BQ13" s="50"/>
       <c r="BR13" s="50"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70">
       <c r="A14" s="78"/>
       <c r="B14" s="308"/>
       <c r="C14" s="306"/>
@@ -19363,7 +19460,7 @@
       <c r="BQ14" s="50"/>
       <c r="BR14" s="50"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70">
       <c r="A15" s="78"/>
       <c r="B15" s="315"/>
       <c r="C15" s="271"/>
@@ -19435,7 +19532,7 @@
       <c r="BQ15" s="50"/>
       <c r="BR15" s="50"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70">
       <c r="A16" s="78"/>
       <c r="B16" s="308"/>
       <c r="C16" s="306"/>
@@ -19507,7 +19604,7 @@
       <c r="BQ16" s="50"/>
       <c r="BR16" s="50"/>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70">
       <c r="A17" s="78"/>
       <c r="B17" s="308"/>
       <c r="C17" s="308"/>
@@ -19579,7 +19676,7 @@
       <c r="BQ17" s="50"/>
       <c r="BR17" s="50"/>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70">
       <c r="A18" s="78"/>
       <c r="B18" s="305"/>
       <c r="C18" s="305"/>
@@ -19651,7 +19748,7 @@
       <c r="BQ18" s="50"/>
       <c r="BR18" s="50"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70">
       <c r="A19" s="78"/>
       <c r="B19" s="305"/>
       <c r="C19" s="305"/>
@@ -19723,7 +19820,7 @@
       <c r="BQ19" s="50"/>
       <c r="BR19" s="50"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70">
       <c r="A20" s="78"/>
       <c r="B20" s="307"/>
       <c r="C20" s="305"/>
@@ -19760,7 +19857,7 @@
       <c r="AH20" s="249"/>
       <c r="AI20" s="249"/>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70">
       <c r="A21" s="78"/>
       <c r="B21" s="307"/>
       <c r="C21" s="305"/>
@@ -19797,7 +19894,7 @@
       <c r="AH21" s="249"/>
       <c r="AI21" s="249"/>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70">
       <c r="A22" s="78"/>
       <c r="B22" s="307"/>
       <c r="C22" s="305"/>
@@ -19834,7 +19931,7 @@
       <c r="AH22" s="249"/>
       <c r="AI22" s="249"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:70">
       <c r="A23" s="78"/>
       <c r="B23" s="305"/>
       <c r="C23" s="305"/>
@@ -19871,7 +19968,7 @@
       <c r="AH23" s="249"/>
       <c r="AI23" s="249"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:70">
       <c r="A24" s="78"/>
       <c r="B24" s="305"/>
       <c r="C24" s="305"/>
@@ -19908,7 +20005,7 @@
       <c r="AH24" s="249"/>
       <c r="AI24" s="249"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70">
       <c r="A25" s="78"/>
       <c r="B25" s="305"/>
       <c r="C25" s="305"/>
@@ -20045,6 +20142,7 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="38" max="19" man="1"/>
   </colBreaks>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20055,113 +20153,113 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="28.83203125" style="50" customWidth="1"/>
     <col min="2" max="16384" width="4.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="78" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="118" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="118" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="118" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="118" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="118" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="118" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="78" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="78" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="78" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="78" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="119" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="119" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="119" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="119" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="119" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="119" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="119" t="s">
         <v>83</v>
       </c>
